--- a/arquivos_postos/output/39482221000189.xlsx
+++ b/arquivos_postos/output/39482221000189.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>Afericao</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -493,6 +498,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +538,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -563,6 +578,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -598,6 +618,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -633,6 +658,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -668,6 +698,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -703,6 +738,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -738,6 +778,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -773,6 +818,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -808,6 +858,11 @@
           <t>0,000</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -841,6 +896,11 @@
       <c r="G12" t="inlineStr">
         <is>
           <t>0,000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
         </is>
       </c>
     </row>
@@ -855,7 +915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -889,6 +949,11 @@
           <t>Recebimento</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -914,6 +979,11 @@
           <t>60.000,000</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -939,6 +1009,11 @@
           <t>25.000,000</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -964,6 +1039,11 @@
           <t>55.000,000</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -989,6 +1069,11 @@
           <t>10.000,000</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1014,6 +1099,11 @@
           <t>25.000,000</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1037,6 +1127,11 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>45.000,000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
         </is>
       </c>
     </row>
